--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 09:42:25</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 10:54:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 10:54:56</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:27:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:27:54</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:46:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:46:34</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:55:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:55:28</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:09:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:09:55</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:26:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:26:58</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:36:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:36:46</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:45:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:45:40</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:54:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:54:01</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:03:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:03:15</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:27:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:27:14</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:39:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:39:41</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:48:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:48:33</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:57:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:57:15</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:11:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:11:17</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:25:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:25:31</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:34:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:34:46</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:44:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:44:04</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:52:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:52:35</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:01:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:01:14</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:23:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:23:39</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:36:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:36:00</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:45:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:45:03</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:54:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -11090,7 +11090,7 @@
     <t>PURO OURO</t>
   </si>
   <si>
-    <t>WENYU ZHO</t>
+    <t>Wenyu Zhou</t>
   </si>
   <si>
     <t>-15°33'22.230"</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:54:00</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:02:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:02:40</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:20:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:20:25</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:28:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:28:39</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:37:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:37:37</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:46:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:46:40</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:55:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:55:20</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:10:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:10:24</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:30:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:30:45</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:40:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:40:51</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:50:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:50:12</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:58:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:58:21</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:14:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:14:01</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:26:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:26:24</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:35:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:35:15</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:44:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:44:10</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:53:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:53:00</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:01:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:01:53</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:21:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:21:48</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:32:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:32:42</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:41:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:41:41</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:50:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:50:42</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:59:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:59:28</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:13:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:13:43</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:23:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:23:35</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:32:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:32:14</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:42:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:42:19</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:50:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:50:03</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:59:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:59:35</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 09:26:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 09:26:10</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 09:50:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 09:50:48</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:07:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:07:17</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:27:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:27:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:35:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:35:53</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:45:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:45:11</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:53:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:53:38</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:02:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:02:31</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:19:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:19:40</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:29:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:29:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:37:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:37:55</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:46:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:46:57</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:55:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:55:47</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:09:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:09:19</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:24:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:24:56</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:34:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:34:07</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:42:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:42:44</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 12:51:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 12:51:30</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:00:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:00:28</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:24:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:24:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:42:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225124.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:42:13</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 01:51:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225124.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 01:51:42</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:00:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:00:38</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:16:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:16:14</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:28:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:28:25</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:37:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:37:32</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:46:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:46:30</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 02:55:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 02:55:56</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:09:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:09:51</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:29:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:29:36</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:39:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:39:29</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:48:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:48:46</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 03:57:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 03:57:21</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:10:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:10:11</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:20:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:20:11</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:29:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:29:07</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:37:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:37:58</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:46:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:46:29</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 04:55:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 04:55:25</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:09:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:09:32</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:25:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:25:26</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:34:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:34:08</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:43:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:43:25</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 05:52:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 05:52:12</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:00:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:00:51</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:16:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:16:32</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:26:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:26:18</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:35:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:35:18</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:44:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224424.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:44:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 06:53:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 06:53:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:02:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:02:33</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:20:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223024.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:20:16</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:30:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223024.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:30:49</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:39:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223924.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:39:59</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:48:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225824.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:48:25</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 07:58:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225824.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221224.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 07:58:04</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:12:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:12:49</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:26:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:26:48</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:36:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223624.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:36:09</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:45:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-24.xlsx
+++ b/sigbm_download_2022-12-24.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 08:45:02</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 08:53:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
